--- a/Pleth_Breath_Types/Currently_labeling_data/Unseen (Blinded)/balanced_unseen_data_type2.xlsx
+++ b/Pleth_Breath_Types/Currently_labeling_data/Unseen (Blinded)/balanced_unseen_data_type2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edward.luca\Github\PlethMachineLearning\Pleth_Breath_Types\Currently_labeling_data\Unseen (Blinded)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluca\Github\PlethMachineLearning\Pleth_Breath_Types\Currently_labeling_data\Unseen (Blinded)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="532">
   <si>
     <t>Sample</t>
   </si>
@@ -1614,6 +1614,9 @@
   </si>
   <si>
     <t>LPS</t>
+  </si>
+  <si>
+    <t>Phase</t>
   </si>
 </sst>
 </file>
@@ -2035,12 +2038,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK161"/>
+  <dimension ref="A1:AL161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AH19" sqref="AH19"/>
+      <selection pane="bottomLeft" activeCell="AH164" sqref="AH164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,11 +2051,11 @@
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="32" max="32" width="11.85546875" style="8" customWidth="1"/>
     <col min="33" max="33" width="15.28515625" style="9" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="7"/>
+    <col min="34" max="35" width="21.85546875" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2155,17 +2158,20 @@
       <c r="AH1" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2040</v>
       </c>
@@ -2265,14 +2271,17 @@
       <c r="AG2" s="9">
         <v>0</v>
       </c>
-      <c r="AI2" s="7">
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="7">
         <v>59</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AK2" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3138</v>
       </c>
@@ -2372,14 +2381,17 @@
       <c r="AG3" s="9">
         <v>0</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="7">
         <v>69</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AK3" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1802</v>
       </c>
@@ -2479,14 +2491,17 @@
       <c r="AG4" s="9">
         <v>0</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="7">
         <v>74</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2420</v>
       </c>
@@ -2586,14 +2601,17 @@
       <c r="AG5" s="9">
         <v>0</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="7">
         <v>76</v>
       </c>
-      <c r="AJ5" s="11" t="s">
+      <c r="AK5" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1811</v>
       </c>
@@ -2693,14 +2711,17 @@
       <c r="AG6" s="9">
         <v>0</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="7">
         <v>86</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AK6" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3137</v>
       </c>
@@ -2800,14 +2821,17 @@
       <c r="AG7" s="9">
         <v>0</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="7">
         <v>75</v>
       </c>
-      <c r="AJ7" s="11" t="s">
+      <c r="AK7" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1718</v>
       </c>
@@ -2907,14 +2931,17 @@
       <c r="AG8" s="9">
         <v>0</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="7">
         <v>89</v>
       </c>
-      <c r="AJ8" s="11" t="s">
+      <c r="AK8" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2417</v>
       </c>
@@ -3014,14 +3041,17 @@
       <c r="AG9" s="9">
         <v>0</v>
       </c>
-      <c r="AI9" s="7">
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="7">
         <v>82</v>
       </c>
-      <c r="AJ9" s="11" t="s">
+      <c r="AK9" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1467</v>
       </c>
@@ -3121,14 +3151,17 @@
       <c r="AG10" s="9">
         <v>0</v>
       </c>
-      <c r="AI10" s="7">
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="7">
         <v>92</v>
       </c>
-      <c r="AJ10" s="11" t="s">
+      <c r="AK10" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2028</v>
       </c>
@@ -3228,14 +3261,17 @@
       <c r="AG11" s="9">
         <v>0</v>
       </c>
-      <c r="AI11" s="7">
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="7">
         <v>87</v>
       </c>
-      <c r="AJ11" s="11" t="s">
+      <c r="AK11" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1469</v>
       </c>
@@ -3335,14 +3371,17 @@
       <c r="AG12" s="9">
         <v>0</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="7">
         <v>91</v>
       </c>
-      <c r="AJ12" s="11" t="s">
+      <c r="AK12" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -3442,14 +3481,17 @@
       <c r="AG13" s="9">
         <v>0</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="7">
         <v>89</v>
       </c>
-      <c r="AJ13" s="11" t="s">
+      <c r="AK13" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1468</v>
       </c>
@@ -3549,14 +3591,17 @@
       <c r="AG14" s="9">
         <v>0</v>
       </c>
-      <c r="AI14" s="7">
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="7">
         <v>99</v>
       </c>
-      <c r="AJ14" s="11" t="s">
+      <c r="AK14" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1466</v>
       </c>
@@ -3656,14 +3701,17 @@
       <c r="AG15" s="9">
         <v>0</v>
       </c>
-      <c r="AI15" s="7">
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="7">
         <v>95</v>
       </c>
-      <c r="AJ15" s="11" t="s">
+      <c r="AK15" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1719</v>
       </c>
@@ -3763,14 +3811,17 @@
       <c r="AG16" s="9">
         <v>0</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="7">
         <v>94</v>
       </c>
-      <c r="AJ16" s="11" t="s">
+      <c r="AK16" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1720</v>
       </c>
@@ -3870,14 +3921,17 @@
       <c r="AG17" s="9">
         <v>0</v>
       </c>
-      <c r="AI17" s="7">
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="7">
         <v>100</v>
       </c>
-      <c r="AJ17" s="11" t="s">
+      <c r="AK17" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1471</v>
       </c>
@@ -3977,14 +4031,17 @@
       <c r="AG18" s="9">
         <v>0</v>
       </c>
-      <c r="AI18" s="7">
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="7">
         <v>105</v>
       </c>
-      <c r="AJ18" s="11" t="s">
+      <c r="AK18" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1724</v>
       </c>
@@ -4084,14 +4141,17 @@
       <c r="AG19" s="9">
         <v>0</v>
       </c>
-      <c r="AI19" s="7">
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="7">
         <v>103</v>
       </c>
-      <c r="AJ19" s="11" t="s">
+      <c r="AK19" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1810</v>
       </c>
@@ -4191,14 +4251,17 @@
       <c r="AG20" s="9">
         <v>0</v>
       </c>
-      <c r="AI20" s="7">
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="7">
         <v>112</v>
       </c>
-      <c r="AJ20" s="11" t="s">
+      <c r="AK20" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1470</v>
       </c>
@@ -4298,14 +4361,17 @@
       <c r="AG21" s="9">
         <v>0</v>
       </c>
-      <c r="AI21" s="7">
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="7">
         <v>113</v>
       </c>
-      <c r="AJ21" s="11" t="s">
+      <c r="AK21" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6085</v>
       </c>
@@ -4408,14 +4474,17 @@
       <c r="AH22" t="s">
         <v>281</v>
       </c>
-      <c r="AI22" s="7">
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="7">
         <v>12</v>
       </c>
-      <c r="AJ22" s="11" t="s">
+      <c r="AK22" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5048</v>
       </c>
@@ -4518,14 +4587,17 @@
       <c r="AH23" t="s">
         <v>283</v>
       </c>
-      <c r="AI23" s="7">
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="7">
         <v>29</v>
       </c>
-      <c r="AJ23" s="11" t="s">
+      <c r="AK23" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8243</v>
       </c>
@@ -4628,14 +4700,17 @@
       <c r="AH24" t="s">
         <v>283</v>
       </c>
-      <c r="AI24" s="7">
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="7">
         <v>30</v>
       </c>
-      <c r="AJ24" s="11" t="s">
+      <c r="AK24" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4494</v>
       </c>
@@ -4738,14 +4813,17 @@
       <c r="AH25" t="s">
         <v>284</v>
       </c>
-      <c r="AI25" s="7">
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="7">
         <v>32</v>
       </c>
-      <c r="AJ25" s="11" t="s">
+      <c r="AK25" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2157</v>
       </c>
@@ -4848,14 +4926,17 @@
       <c r="AH26" t="s">
         <v>282</v>
       </c>
-      <c r="AI26" s="7">
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="7">
         <v>35</v>
       </c>
-      <c r="AJ26" s="11" t="s">
+      <c r="AK26" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3477</v>
       </c>
@@ -4958,14 +5039,17 @@
       <c r="AH27" t="s">
         <v>282</v>
       </c>
-      <c r="AI27" s="7">
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="7">
         <v>35</v>
       </c>
-      <c r="AJ27" s="11" t="s">
+      <c r="AK27" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4346</v>
       </c>
@@ -5068,14 +5152,17 @@
       <c r="AH28" t="s">
         <v>282</v>
       </c>
-      <c r="AI28" s="7">
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="7">
         <v>36</v>
       </c>
-      <c r="AJ28" s="11" t="s">
+      <c r="AK28" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6589</v>
       </c>
@@ -5178,14 +5265,17 @@
       <c r="AH29" t="s">
         <v>282</v>
       </c>
-      <c r="AI29" s="7">
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="7">
         <v>38</v>
       </c>
-      <c r="AJ29" s="11" t="s">
+      <c r="AK29" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3991</v>
       </c>
@@ -5288,14 +5378,17 @@
       <c r="AH30" t="s">
         <v>282</v>
       </c>
-      <c r="AI30" s="7">
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="7">
         <v>41</v>
       </c>
-      <c r="AJ30" s="11" t="s">
+      <c r="AK30" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9199</v>
       </c>
@@ -5398,14 +5491,17 @@
       <c r="AH31" t="s">
         <v>282</v>
       </c>
-      <c r="AI31" s="7">
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="7">
         <v>40</v>
       </c>
-      <c r="AJ31" s="11" t="s">
+      <c r="AK31" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8344</v>
       </c>
@@ -5505,14 +5601,17 @@
       <c r="AG32" s="9">
         <v>1</v>
       </c>
-      <c r="AI32" s="7">
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="7">
         <v>41</v>
       </c>
-      <c r="AJ32" s="11" t="s">
+      <c r="AK32" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8178</v>
       </c>
@@ -5612,14 +5711,17 @@
       <c r="AG33" s="9">
         <v>1</v>
       </c>
-      <c r="AI33" s="7">
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="7">
         <v>50</v>
       </c>
-      <c r="AJ33" s="11" t="s">
+      <c r="AK33" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>688</v>
       </c>
@@ -5719,14 +5821,17 @@
       <c r="AG34" s="9">
         <v>1</v>
       </c>
-      <c r="AI34" s="7">
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="7">
         <v>53</v>
       </c>
-      <c r="AJ34" s="11" t="s">
+      <c r="AK34" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8091</v>
       </c>
@@ -5826,14 +5931,17 @@
       <c r="AG35" s="9">
         <v>1</v>
       </c>
-      <c r="AI35" s="7">
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="7">
         <v>56</v>
       </c>
-      <c r="AJ35" s="11" t="s">
+      <c r="AK35" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8134</v>
       </c>
@@ -5933,14 +6041,17 @@
       <c r="AG36" s="9">
         <v>1</v>
       </c>
-      <c r="AI36" s="7">
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="7">
         <v>55</v>
       </c>
-      <c r="AJ36" s="11" t="s">
+      <c r="AK36" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8743</v>
       </c>
@@ -6040,14 +6151,17 @@
       <c r="AG37" s="9">
         <v>1</v>
       </c>
-      <c r="AI37" s="7">
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="7">
         <v>62</v>
       </c>
-      <c r="AJ37" s="11" t="s">
+      <c r="AK37" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7907</v>
       </c>
@@ -6147,14 +6261,17 @@
       <c r="AG38" s="9">
         <v>1</v>
       </c>
-      <c r="AI38" s="7">
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="7">
         <v>65</v>
       </c>
-      <c r="AJ38" s="11" t="s">
+      <c r="AK38" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8051</v>
       </c>
@@ -6254,14 +6371,17 @@
       <c r="AG39" s="9">
         <v>1</v>
       </c>
-      <c r="AI39" s="7">
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="7">
         <v>76</v>
       </c>
-      <c r="AJ39" s="11" t="s">
+      <c r="AK39" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1203</v>
       </c>
@@ -6361,14 +6481,17 @@
       <c r="AG40" s="9">
         <v>1</v>
       </c>
-      <c r="AI40" s="7">
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="7">
         <v>72</v>
       </c>
-      <c r="AJ40" s="11" t="s">
+      <c r="AK40" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1380</v>
       </c>
@@ -6468,14 +6591,17 @@
       <c r="AG41" s="9">
         <v>1</v>
       </c>
-      <c r="AI41" s="7">
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="7">
         <v>88</v>
       </c>
-      <c r="AJ41" s="11" t="s">
+      <c r="AK41" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8092</v>
       </c>
@@ -6575,14 +6701,17 @@
       <c r="AG42" s="9">
         <v>2</v>
       </c>
-      <c r="AI42" s="7">
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="7">
         <v>240</v>
       </c>
-      <c r="AJ42" s="11" t="s">
+      <c r="AK42" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8097</v>
       </c>
@@ -6682,14 +6811,17 @@
       <c r="AG43" s="9">
         <v>2</v>
       </c>
-      <c r="AI43" s="7">
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="7">
         <v>250</v>
       </c>
-      <c r="AJ43" s="11" t="s">
+      <c r="AK43" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2073</v>
       </c>
@@ -6789,14 +6921,17 @@
       <c r="AG44" s="9">
         <v>2</v>
       </c>
-      <c r="AI44" s="7">
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="7">
         <v>221</v>
       </c>
-      <c r="AJ44" s="11" t="s">
+      <c r="AK44" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1751</v>
       </c>
@@ -6896,14 +7031,17 @@
       <c r="AG45" s="9">
         <v>2</v>
       </c>
-      <c r="AI45" s="7">
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="7">
         <v>262</v>
       </c>
-      <c r="AJ45" s="11" t="s">
+      <c r="AK45" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1759</v>
       </c>
@@ -7003,14 +7141,17 @@
       <c r="AG46" s="9">
         <v>2</v>
       </c>
-      <c r="AI46" s="7">
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="7">
         <v>290</v>
       </c>
-      <c r="AJ46" s="11" t="s">
+      <c r="AK46" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1758</v>
       </c>
@@ -7110,14 +7251,17 @@
       <c r="AG47" s="9">
         <v>2</v>
       </c>
-      <c r="AI47" s="7">
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="7">
         <v>308</v>
       </c>
-      <c r="AJ47" s="11" t="s">
+      <c r="AK47" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1411</v>
       </c>
@@ -7217,14 +7361,17 @@
       <c r="AG48" s="9">
         <v>2</v>
       </c>
-      <c r="AI48" s="7">
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="7">
         <v>251</v>
       </c>
-      <c r="AJ48" s="11" t="s">
+      <c r="AK48" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1410</v>
       </c>
@@ -7324,14 +7471,17 @@
       <c r="AG49" s="9">
         <v>2</v>
       </c>
-      <c r="AI49" s="7">
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="7">
         <v>269</v>
       </c>
-      <c r="AJ49" s="11" t="s">
+      <c r="AK49" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1742</v>
       </c>
@@ -7431,14 +7581,17 @@
       <c r="AG50" s="9">
         <v>2</v>
       </c>
-      <c r="AI50" s="7">
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="7">
         <v>392</v>
       </c>
-      <c r="AJ50" s="11" t="s">
+      <c r="AK50" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3846</v>
       </c>
@@ -7538,14 +7691,17 @@
       <c r="AG51" s="9">
         <v>2</v>
       </c>
-      <c r="AI51" s="7">
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="7">
         <v>351</v>
       </c>
-      <c r="AJ51" s="11" t="s">
+      <c r="AK51" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1757</v>
       </c>
@@ -7645,14 +7801,17 @@
       <c r="AG52" s="9">
         <v>2</v>
       </c>
-      <c r="AI52" s="7">
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="7">
         <v>408</v>
       </c>
-      <c r="AJ52" s="11" t="s">
+      <c r="AK52" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3833</v>
       </c>
@@ -7752,14 +7911,17 @@
       <c r="AG53" s="9">
         <v>2</v>
       </c>
-      <c r="AI53" s="7">
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="7">
         <v>343</v>
       </c>
-      <c r="AJ53" s="11" t="s">
+      <c r="AK53" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3845</v>
       </c>
@@ -7859,14 +8021,17 @@
       <c r="AG54" s="9">
         <v>2</v>
       </c>
-      <c r="AI54" s="7">
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="7">
         <v>382</v>
       </c>
-      <c r="AJ54" s="11" t="s">
+      <c r="AK54" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1497</v>
       </c>
@@ -7966,14 +8131,17 @@
       <c r="AG55" s="9">
         <v>2</v>
       </c>
-      <c r="AI55" s="7">
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="7">
         <v>288</v>
       </c>
-      <c r="AJ55" s="11" t="s">
+      <c r="AK55" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3847</v>
       </c>
@@ -8073,14 +8241,17 @@
       <c r="AG56" s="9">
         <v>2</v>
       </c>
-      <c r="AI56" s="7">
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="7">
         <v>382</v>
       </c>
-      <c r="AJ56" s="11" t="s">
+      <c r="AK56" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1734</v>
       </c>
@@ -8180,14 +8351,17 @@
       <c r="AG57" s="9">
         <v>2</v>
       </c>
-      <c r="AI57" s="7">
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="7">
         <v>408</v>
       </c>
-      <c r="AJ57" s="11" t="s">
+      <c r="AK57" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8096</v>
       </c>
@@ -8287,14 +8461,17 @@
       <c r="AG58" s="9">
         <v>2</v>
       </c>
-      <c r="AI58" s="7">
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="7">
         <v>400</v>
       </c>
-      <c r="AJ58" s="11" t="s">
+      <c r="AK58" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1409</v>
       </c>
@@ -8394,14 +8571,17 @@
       <c r="AG59" s="9">
         <v>2</v>
       </c>
-      <c r="AI59" s="7">
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="7">
         <v>417</v>
       </c>
-      <c r="AJ59" s="11" t="s">
+      <c r="AK59" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1495</v>
       </c>
@@ -8501,14 +8681,17 @@
       <c r="AG60" s="9">
         <v>2</v>
       </c>
-      <c r="AI60" s="7">
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="7">
         <v>429</v>
       </c>
-      <c r="AJ60" s="11" t="s">
+      <c r="AK60" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1496</v>
       </c>
@@ -8608,14 +8791,17 @@
       <c r="AG61" s="9">
         <v>2</v>
       </c>
-      <c r="AI61" s="7">
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="7">
         <v>392</v>
       </c>
-      <c r="AJ61" s="11" t="s">
+      <c r="AK61" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7117</v>
       </c>
@@ -8715,14 +8901,17 @@
       <c r="AG62" s="9">
         <v>3</v>
       </c>
-      <c r="AI62" s="7">
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="7">
         <v>14</v>
       </c>
-      <c r="AJ62" s="11" t="s">
+      <c r="AK62" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2874</v>
       </c>
@@ -8822,14 +9011,17 @@
       <c r="AG63" s="9">
         <v>3</v>
       </c>
-      <c r="AI63" s="7">
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="7">
         <v>19</v>
       </c>
-      <c r="AJ63" s="11" t="s">
+      <c r="AK63" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4347</v>
       </c>
@@ -8929,14 +9121,17 @@
       <c r="AG64" s="9">
         <v>3</v>
       </c>
-      <c r="AI64" s="7">
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="7">
         <v>22</v>
       </c>
-      <c r="AJ64" s="11" t="s">
+      <c r="AK64" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3047</v>
       </c>
@@ -9036,14 +9231,17 @@
       <c r="AG65" s="9">
         <v>3</v>
       </c>
-      <c r="AI65" s="7">
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="7">
         <v>21</v>
       </c>
-      <c r="AJ65" s="11" t="s">
+      <c r="AK65" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4816</v>
       </c>
@@ -9143,14 +9341,17 @@
       <c r="AG66" s="9">
         <v>3</v>
       </c>
-      <c r="AI66" s="7">
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="7">
         <v>22</v>
       </c>
-      <c r="AJ66" s="11" t="s">
+      <c r="AK66" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3331</v>
       </c>
@@ -9250,14 +9451,17 @@
       <c r="AG67" s="9">
         <v>3</v>
       </c>
-      <c r="AI67" s="7">
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="7">
         <v>25</v>
       </c>
-      <c r="AJ67" s="11" t="s">
+      <c r="AK67" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7745</v>
       </c>
@@ -9357,14 +9561,17 @@
       <c r="AG68" s="9">
         <v>3</v>
       </c>
-      <c r="AI68" s="7">
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="7">
         <v>26</v>
       </c>
-      <c r="AJ68" s="11" t="s">
+      <c r="AK68" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4582</v>
       </c>
@@ -9464,14 +9671,17 @@
       <c r="AG69" s="9">
         <v>3</v>
       </c>
-      <c r="AI69" s="7">
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="7">
         <v>27</v>
       </c>
-      <c r="AJ69" s="11" t="s">
+      <c r="AK69" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3048</v>
       </c>
@@ -9571,14 +9781,17 @@
       <c r="AG70" s="9">
         <v>3</v>
       </c>
-      <c r="AI70" s="7">
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="7">
         <v>26</v>
       </c>
-      <c r="AJ70" s="11" t="s">
+      <c r="AK70" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4495</v>
       </c>
@@ -9678,14 +9891,17 @@
       <c r="AG71" s="9">
         <v>3</v>
       </c>
-      <c r="AI71" s="7">
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="7">
         <v>29</v>
       </c>
-      <c r="AJ71" s="11" t="s">
+      <c r="AK71" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3882</v>
       </c>
@@ -9785,14 +10001,17 @@
       <c r="AG72" s="9">
         <v>3</v>
       </c>
-      <c r="AI72" s="7">
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="7">
         <v>30</v>
       </c>
-      <c r="AJ72" s="11" t="s">
+      <c r="AK72" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3967</v>
       </c>
@@ -9892,14 +10111,17 @@
       <c r="AG73" s="9">
         <v>3</v>
       </c>
-      <c r="AI73" s="7">
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="7">
         <v>29</v>
       </c>
-      <c r="AJ73" s="11" t="s">
+      <c r="AK73" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3929</v>
       </c>
@@ -9999,14 +10221,17 @@
       <c r="AG74" s="9">
         <v>3</v>
       </c>
-      <c r="AI74" s="7">
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="7">
         <v>31</v>
       </c>
-      <c r="AJ74" s="11" t="s">
+      <c r="AK74" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3930</v>
       </c>
@@ -10106,14 +10331,17 @@
       <c r="AG75" s="9">
         <v>3</v>
       </c>
-      <c r="AI75" s="7">
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="7">
         <v>34</v>
       </c>
-      <c r="AJ75" s="11" t="s">
+      <c r="AK75" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3049</v>
       </c>
@@ -10213,14 +10441,17 @@
       <c r="AG76" s="9">
         <v>3</v>
       </c>
-      <c r="AI76" s="7">
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="7">
         <v>32</v>
       </c>
-      <c r="AJ76" s="11" t="s">
+      <c r="AK76" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5811</v>
       </c>
@@ -10320,14 +10551,17 @@
       <c r="AG77" s="9">
         <v>3</v>
       </c>
-      <c r="AI77" s="7">
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="7">
         <v>35</v>
       </c>
-      <c r="AJ77" s="11" t="s">
+      <c r="AK77" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3878</v>
       </c>
@@ -10427,14 +10661,17 @@
       <c r="AG78" s="9">
         <v>3</v>
       </c>
-      <c r="AI78" s="7">
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="7">
         <v>39</v>
       </c>
-      <c r="AJ78" s="11" t="s">
+      <c r="AK78" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1915</v>
       </c>
@@ -10534,14 +10771,17 @@
       <c r="AG79" s="9">
         <v>3</v>
       </c>
-      <c r="AI79" s="7">
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="7">
         <v>39</v>
       </c>
-      <c r="AJ79" s="11" t="s">
+      <c r="AK79" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3933</v>
       </c>
@@ -10641,14 +10881,17 @@
       <c r="AG80" s="9">
         <v>3</v>
       </c>
-      <c r="AI80" s="7">
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="7">
         <v>42</v>
       </c>
-      <c r="AJ80" s="11" t="s">
+      <c r="AK80" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3913</v>
       </c>
@@ -10748,14 +10991,17 @@
       <c r="AG81" s="9">
         <v>3</v>
       </c>
-      <c r="AI81" s="7">
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="7">
         <v>52</v>
       </c>
-      <c r="AJ81" s="11" t="s">
+      <c r="AK81" s="11" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4364</v>
       </c>
@@ -10855,14 +11101,17 @@
       <c r="AG82" s="9">
         <v>0</v>
       </c>
-      <c r="AI82" s="10">
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="10">
         <v>68</v>
       </c>
-      <c r="AJ82" s="11" t="s">
+      <c r="AK82" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4365</v>
       </c>
@@ -10962,14 +11211,17 @@
       <c r="AG83" s="9">
         <v>0</v>
       </c>
-      <c r="AI83" s="10">
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="10">
         <v>72</v>
       </c>
-      <c r="AJ83" s="11" t="s">
+      <c r="AK83" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4366</v>
       </c>
@@ -11069,14 +11321,17 @@
       <c r="AG84" s="9">
         <v>0</v>
       </c>
-      <c r="AI84" s="10">
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="10">
         <v>114</v>
       </c>
-      <c r="AJ84" s="11" t="s">
+      <c r="AK84" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4367</v>
       </c>
@@ -11176,14 +11431,17 @@
       <c r="AG85" s="9">
         <v>0</v>
       </c>
-      <c r="AI85" s="10">
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="10">
         <v>96</v>
       </c>
-      <c r="AJ85" s="11" t="s">
+      <c r="AK85" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4368</v>
       </c>
@@ -11283,14 +11541,17 @@
       <c r="AG86" s="9">
         <v>0</v>
       </c>
-      <c r="AI86" s="10">
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="10">
         <v>74</v>
       </c>
-      <c r="AJ86" s="11" t="s">
+      <c r="AK86" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4369</v>
       </c>
@@ -11390,14 +11651,17 @@
       <c r="AG87" s="9">
         <v>0</v>
       </c>
-      <c r="AI87" s="10">
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="10">
         <v>92</v>
       </c>
-      <c r="AJ87" s="11" t="s">
+      <c r="AK87" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7044</v>
       </c>
@@ -11497,14 +11761,17 @@
       <c r="AG88" s="9">
         <v>0</v>
       </c>
-      <c r="AI88" s="10">
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="10">
         <v>60</v>
       </c>
-      <c r="AJ88" s="11" t="s">
+      <c r="AK88" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7045</v>
       </c>
@@ -11604,14 +11871,17 @@
       <c r="AG89" s="9">
         <v>0</v>
       </c>
-      <c r="AI89" s="10">
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="10">
         <v>62</v>
       </c>
-      <c r="AJ89" s="11" t="s">
+      <c r="AK89" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7046</v>
       </c>
@@ -11711,14 +11981,17 @@
       <c r="AG90" s="9">
         <v>0</v>
       </c>
-      <c r="AI90" s="10">
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="10">
         <v>61</v>
       </c>
-      <c r="AJ90" s="11" t="s">
+      <c r="AK90" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>7047</v>
       </c>
@@ -11818,14 +12091,17 @@
       <c r="AG91" s="9">
         <v>0</v>
       </c>
-      <c r="AI91" s="10">
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="10">
         <v>66</v>
       </c>
-      <c r="AJ91" s="11" t="s">
+      <c r="AK91" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>7048</v>
       </c>
@@ -11925,14 +12201,17 @@
       <c r="AG92" s="9">
         <v>0</v>
       </c>
-      <c r="AI92" s="10">
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="10">
         <v>64</v>
       </c>
-      <c r="AJ92" s="11" t="s">
+      <c r="AK92" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7787</v>
       </c>
@@ -12032,14 +12311,17 @@
       <c r="AG93" s="9">
         <v>0</v>
       </c>
-      <c r="AI93" s="10">
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="10">
         <v>83</v>
       </c>
-      <c r="AJ93" s="11" t="s">
+      <c r="AK93" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7788</v>
       </c>
@@ -12139,14 +12421,17 @@
       <c r="AG94" s="9">
         <v>0</v>
       </c>
-      <c r="AI94" s="10">
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="10">
         <v>94</v>
       </c>
-      <c r="AJ94" s="11" t="s">
+      <c r="AK94" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>7789</v>
       </c>
@@ -12246,14 +12531,17 @@
       <c r="AG95" s="9">
         <v>0</v>
       </c>
-      <c r="AI95" s="10">
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="10">
         <v>105</v>
       </c>
-      <c r="AJ95" s="11" t="s">
+      <c r="AK95" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7791</v>
       </c>
@@ -12353,14 +12641,17 @@
       <c r="AG96" s="9">
         <v>0</v>
       </c>
-      <c r="AI96" s="10">
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="10">
         <v>101</v>
       </c>
-      <c r="AJ96" s="11" t="s">
+      <c r="AK96" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10254</v>
       </c>
@@ -12460,14 +12751,17 @@
       <c r="AG97" s="9">
         <v>0</v>
       </c>
-      <c r="AI97" s="10">
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="10">
         <v>93</v>
       </c>
-      <c r="AJ97" s="11" t="s">
+      <c r="AK97" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10257</v>
       </c>
@@ -12567,14 +12861,17 @@
       <c r="AG98" s="9">
         <v>0</v>
       </c>
-      <c r="AI98" s="10">
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98" s="10">
         <v>99</v>
       </c>
-      <c r="AJ98" s="11" t="s">
+      <c r="AK98" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10258</v>
       </c>
@@ -12674,14 +12971,17 @@
       <c r="AG99" s="9">
         <v>0</v>
       </c>
-      <c r="AI99" s="10">
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="10">
         <v>96</v>
       </c>
-      <c r="AJ99" s="11" t="s">
+      <c r="AK99" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10667</v>
       </c>
@@ -12781,14 +13081,17 @@
       <c r="AG100" s="9">
         <v>0</v>
       </c>
-      <c r="AI100" s="10">
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="10">
         <v>94</v>
       </c>
-      <c r="AJ100" s="11" t="s">
+      <c r="AK100" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10866</v>
       </c>
@@ -12888,14 +13191,17 @@
       <c r="AG101" s="9">
         <v>0</v>
       </c>
-      <c r="AI101" s="10">
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="10">
         <v>100</v>
       </c>
-      <c r="AJ101" s="11" t="s">
+      <c r="AK101" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4251</v>
       </c>
@@ -12998,14 +13304,17 @@
       <c r="AH102" t="s">
         <v>350</v>
       </c>
-      <c r="AI102" s="10">
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="10">
         <v>25</v>
       </c>
-      <c r="AJ102" s="11" t="s">
+      <c r="AK102" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4840</v>
       </c>
@@ -13108,14 +13417,17 @@
       <c r="AH103" t="s">
         <v>350</v>
       </c>
-      <c r="AI103" s="10">
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="10">
         <v>28</v>
       </c>
-      <c r="AJ103" s="11" t="s">
+      <c r="AK103" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>6362</v>
       </c>
@@ -13218,14 +13530,17 @@
       <c r="AH104" t="s">
         <v>350</v>
       </c>
-      <c r="AI104" s="10">
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="10">
         <v>26</v>
       </c>
-      <c r="AJ104" s="11" t="s">
+      <c r="AK104" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6497</v>
       </c>
@@ -13328,14 +13643,17 @@
       <c r="AH105" t="s">
         <v>350</v>
       </c>
-      <c r="AI105" s="10">
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="10">
         <v>25</v>
       </c>
-      <c r="AJ105" s="11" t="s">
+      <c r="AK105" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6716</v>
       </c>
@@ -13435,14 +13753,17 @@
       <c r="AG106" s="9">
         <v>1</v>
       </c>
-      <c r="AI106" s="10">
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="10">
         <v>105</v>
       </c>
-      <c r="AJ106" s="11" t="s">
+      <c r="AK106" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7362</v>
       </c>
@@ -13542,14 +13863,17 @@
       <c r="AG107" s="9">
         <v>1</v>
       </c>
-      <c r="AI107" s="10">
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="10">
         <v>48</v>
       </c>
-      <c r="AJ107" s="11" t="s">
+      <c r="AK107" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9531</v>
       </c>
@@ -13652,14 +13976,17 @@
       <c r="AH108" t="s">
         <v>350</v>
       </c>
-      <c r="AI108" s="10">
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="10">
         <v>29</v>
       </c>
-      <c r="AJ108" s="11" t="s">
+      <c r="AK108" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10353</v>
       </c>
@@ -13759,14 +14086,17 @@
       <c r="AG109" s="9">
         <v>1</v>
       </c>
-      <c r="AI109" s="10">
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="10">
         <v>98</v>
       </c>
-      <c r="AJ109" s="11" t="s">
+      <c r="AK109" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10484</v>
       </c>
@@ -13869,14 +14199,17 @@
       <c r="AH110" t="s">
         <v>350</v>
       </c>
-      <c r="AI110" s="10">
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="10">
         <v>25</v>
       </c>
-      <c r="AJ110" s="11" t="s">
+      <c r="AK110" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10668</v>
       </c>
@@ -13976,14 +14309,17 @@
       <c r="AG111" s="9">
         <v>1</v>
       </c>
-      <c r="AI111" s="10">
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111" s="10">
         <v>106</v>
       </c>
-      <c r="AJ111" s="11" t="s">
+      <c r="AK111" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>10867</v>
       </c>
@@ -14083,14 +14419,17 @@
       <c r="AG112" s="9">
         <v>1</v>
       </c>
-      <c r="AI112" s="10">
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="10">
         <v>132</v>
       </c>
-      <c r="AJ112" s="11" t="s">
+      <c r="AK112" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>11077</v>
       </c>
@@ -14190,14 +14529,17 @@
       <c r="AG113" s="9">
         <v>1</v>
       </c>
-      <c r="AI113" s="10">
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113" s="10">
         <v>126</v>
       </c>
-      <c r="AJ113" s="11" t="s">
+      <c r="AK113" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11294</v>
       </c>
@@ -14297,14 +14639,17 @@
       <c r="AG114" s="9">
         <v>1</v>
       </c>
-      <c r="AI114" s="10">
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114" s="10">
         <v>120</v>
       </c>
-      <c r="AJ114" s="11" t="s">
+      <c r="AK114" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11501</v>
       </c>
@@ -14404,14 +14749,17 @@
       <c r="AG115" s="9">
         <v>1</v>
       </c>
-      <c r="AI115" s="10">
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115" s="10">
         <v>103</v>
       </c>
-      <c r="AJ115" s="11" t="s">
+      <c r="AK115" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>12797</v>
       </c>
@@ -14511,14 +14859,17 @@
       <c r="AG116" s="9">
         <v>1</v>
       </c>
-      <c r="AI116" s="10">
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116" s="10">
         <v>86</v>
       </c>
-      <c r="AJ116" s="11" t="s">
+      <c r="AK116" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>13058</v>
       </c>
@@ -14618,14 +14969,17 @@
       <c r="AG117" s="9">
         <v>1</v>
       </c>
-      <c r="AI117" s="10">
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117" s="10">
         <v>67</v>
       </c>
-      <c r="AJ117" s="11" t="s">
+      <c r="AK117" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>13220</v>
       </c>
@@ -14725,14 +15079,17 @@
       <c r="AG118" s="9">
         <v>1</v>
       </c>
-      <c r="AI118" s="10">
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118" s="10">
         <v>79</v>
       </c>
-      <c r="AJ118" s="11" t="s">
+      <c r="AK118" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>13374</v>
       </c>
@@ -14832,14 +15189,17 @@
       <c r="AG119" s="9">
         <v>1</v>
       </c>
-      <c r="AI119" s="10">
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119" s="10">
         <v>103</v>
       </c>
-      <c r="AJ119" s="11" t="s">
+      <c r="AK119" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>13921</v>
       </c>
@@ -14939,14 +15299,17 @@
       <c r="AG120" s="9">
         <v>1</v>
       </c>
-      <c r="AI120" s="10">
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="10">
         <v>96</v>
       </c>
-      <c r="AJ120" s="11" t="s">
+      <c r="AK120" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>15662</v>
       </c>
@@ -15049,14 +15412,17 @@
       <c r="AH121" t="s">
         <v>350</v>
       </c>
-      <c r="AI121" s="10">
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121" s="10">
         <v>31</v>
       </c>
-      <c r="AJ121" s="11" t="s">
+      <c r="AK121" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3545</v>
       </c>
@@ -15156,14 +15522,17 @@
       <c r="AG122" s="9">
         <v>2</v>
       </c>
-      <c r="AI122" s="10">
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122" s="10">
         <v>448</v>
       </c>
-      <c r="AJ122" s="11" t="s">
+      <c r="AK122" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3546</v>
       </c>
@@ -15263,14 +15632,17 @@
       <c r="AG123" s="9">
         <v>2</v>
       </c>
-      <c r="AI123" s="10">
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123" s="10">
         <v>566</v>
       </c>
-      <c r="AJ123" s="11" t="s">
+      <c r="AK123" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3547</v>
       </c>
@@ -15370,14 +15742,17 @@
       <c r="AG124" s="9">
         <v>2</v>
       </c>
-      <c r="AI124" s="10">
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124" s="10">
         <v>504</v>
       </c>
-      <c r="AJ124" s="11" t="s">
+      <c r="AK124" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3548</v>
       </c>
@@ -15477,14 +15852,17 @@
       <c r="AG125" s="9">
         <v>2</v>
       </c>
-      <c r="AI125" s="10">
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125" s="10">
         <v>451</v>
       </c>
-      <c r="AJ125" s="11" t="s">
+      <c r="AK125" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3549</v>
       </c>
@@ -15584,14 +15962,17 @@
       <c r="AG126" s="9">
         <v>2</v>
       </c>
-      <c r="AI126" s="10">
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126" s="10">
         <v>504</v>
       </c>
-      <c r="AJ126" s="11" t="s">
+      <c r="AK126" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>8307</v>
       </c>
@@ -15691,14 +16072,17 @@
       <c r="AG127" s="9">
         <v>2</v>
       </c>
-      <c r="AI127" s="10">
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127" s="10">
         <v>397</v>
       </c>
-      <c r="AJ127" s="11" t="s">
+      <c r="AK127" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8308</v>
       </c>
@@ -15798,14 +16182,17 @@
       <c r="AG128" s="9">
         <v>2</v>
       </c>
-      <c r="AI128" s="10">
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128" s="10">
         <v>395</v>
       </c>
-      <c r="AJ128" s="11" t="s">
+      <c r="AK128" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>8309</v>
       </c>
@@ -15905,14 +16292,17 @@
       <c r="AG129" s="9">
         <v>2</v>
       </c>
-      <c r="AI129" s="10">
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129" s="10">
         <v>625</v>
       </c>
-      <c r="AJ129" s="11" t="s">
+      <c r="AK129" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8310</v>
       </c>
@@ -16012,14 +16402,17 @@
       <c r="AG130" s="9">
         <v>2</v>
       </c>
-      <c r="AI130" s="10">
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130" s="10">
         <v>632</v>
       </c>
-      <c r="AJ130" s="11" t="s">
+      <c r="AK130" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8311</v>
       </c>
@@ -16119,14 +16512,17 @@
       <c r="AG131" s="9">
         <v>2</v>
       </c>
-      <c r="AI131" s="10">
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131" s="10">
         <v>480</v>
       </c>
-      <c r="AJ131" s="11" t="s">
+      <c r="AK131" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>8347</v>
       </c>
@@ -16226,14 +16622,17 @@
       <c r="AG132" s="9">
         <v>2</v>
       </c>
-      <c r="AI132" s="10">
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132" s="10">
         <v>392</v>
       </c>
-      <c r="AJ132" s="11" t="s">
+      <c r="AK132" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8348</v>
       </c>
@@ -16333,14 +16732,17 @@
       <c r="AG133" s="9">
         <v>2</v>
       </c>
-      <c r="AI133" s="10">
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133" s="10">
         <v>351</v>
       </c>
-      <c r="AJ133" s="11" t="s">
+      <c r="AK133" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>8349</v>
       </c>
@@ -16440,14 +16842,17 @@
       <c r="AG134" s="9">
         <v>2</v>
       </c>
-      <c r="AI134" s="10">
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134" s="10">
         <v>426</v>
       </c>
-      <c r="AJ134" s="11" t="s">
+      <c r="AK134" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8350</v>
       </c>
@@ -16547,14 +16952,17 @@
       <c r="AG135" s="9">
         <v>2</v>
       </c>
-      <c r="AI135" s="10">
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135" s="10">
         <v>323</v>
       </c>
-      <c r="AJ135" s="11" t="s">
+      <c r="AK135" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>8351</v>
       </c>
@@ -16654,14 +17062,17 @@
       <c r="AG136" s="9">
         <v>2</v>
       </c>
-      <c r="AI136" s="10">
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136" s="10">
         <v>286</v>
       </c>
-      <c r="AJ136" s="11" t="s">
+      <c r="AK136" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>12559</v>
       </c>
@@ -16761,14 +17172,17 @@
       <c r="AG137" s="9">
         <v>2</v>
       </c>
-      <c r="AI137" s="10">
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137" s="10">
         <v>328</v>
       </c>
-      <c r="AJ137" s="11" t="s">
+      <c r="AK137" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>12560</v>
       </c>
@@ -16868,14 +17282,17 @@
       <c r="AG138" s="9">
         <v>2</v>
       </c>
-      <c r="AI138" s="10">
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138" s="10">
         <v>380</v>
       </c>
-      <c r="AJ138" s="11" t="s">
+      <c r="AK138" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>12561</v>
       </c>
@@ -16975,14 +17392,17 @@
       <c r="AG139" s="9">
         <v>2</v>
       </c>
-      <c r="AI139" s="10">
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139" s="10">
         <v>397</v>
       </c>
-      <c r="AJ139" s="11" t="s">
+      <c r="AK139" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>12562</v>
       </c>
@@ -17082,14 +17502,17 @@
       <c r="AG140" s="9">
         <v>2</v>
       </c>
-      <c r="AI140" s="10">
+      <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140" s="10">
         <v>361</v>
       </c>
-      <c r="AJ140" s="11" t="s">
+      <c r="AK140" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>12563</v>
       </c>
@@ -17189,14 +17612,17 @@
       <c r="AG141" s="9">
         <v>2</v>
       </c>
-      <c r="AI141" s="10">
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141" s="10">
         <v>353</v>
       </c>
-      <c r="AJ141" s="11" t="s">
+      <c r="AK141" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6364</v>
       </c>
@@ -17296,14 +17722,17 @@
       <c r="AG142" s="9">
         <v>3</v>
       </c>
-      <c r="AI142" s="10">
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142" s="10">
         <v>31</v>
       </c>
-      <c r="AJ142" s="11" t="s">
+      <c r="AK142" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6499</v>
       </c>
@@ -17403,14 +17832,17 @@
       <c r="AG143" s="9">
         <v>3</v>
       </c>
-      <c r="AI143" s="10">
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143" s="10">
         <v>28</v>
       </c>
-      <c r="AJ143" s="11" t="s">
+      <c r="AK143" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6621</v>
       </c>
@@ -17510,14 +17942,17 @@
       <c r="AG144" s="9">
         <v>3</v>
       </c>
-      <c r="AI144" s="10">
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144" s="10">
         <v>36</v>
       </c>
-      <c r="AJ144" s="11" t="s">
+      <c r="AK144" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6718</v>
       </c>
@@ -17617,14 +18052,17 @@
       <c r="AG145" s="9">
         <v>3</v>
       </c>
-      <c r="AI145" s="10">
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145" s="10">
         <v>30</v>
       </c>
-      <c r="AJ145" s="11" t="s">
+      <c r="AK145" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6899</v>
       </c>
@@ -17724,14 +18162,17 @@
       <c r="AG146" s="9">
         <v>3</v>
       </c>
-      <c r="AI146" s="10">
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146" s="10">
         <v>21</v>
       </c>
-      <c r="AJ146" s="11" t="s">
+      <c r="AK146" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7297</v>
       </c>
@@ -17831,14 +18272,17 @@
       <c r="AG147" s="9">
         <v>3</v>
       </c>
-      <c r="AI147" s="10">
+      <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147" s="10">
         <v>32</v>
       </c>
-      <c r="AJ147" s="11" t="s">
+      <c r="AK147" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7364</v>
       </c>
@@ -17938,14 +18382,17 @@
       <c r="AG148" s="9">
         <v>3</v>
       </c>
-      <c r="AI148" s="10">
+      <c r="AI148">
+        <v>0</v>
+      </c>
+      <c r="AJ148" s="10">
         <v>27</v>
       </c>
-      <c r="AJ148" s="11" t="s">
+      <c r="AK148" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7826</v>
       </c>
@@ -18045,14 +18492,17 @@
       <c r="AG149" s="9">
         <v>3</v>
       </c>
-      <c r="AI149" s="10">
+      <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149" s="10">
         <v>34</v>
       </c>
-      <c r="AJ149" s="11" t="s">
+      <c r="AK149" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>8693</v>
       </c>
@@ -18152,14 +18602,17 @@
       <c r="AG150" s="9">
         <v>3</v>
       </c>
-      <c r="AI150" s="10">
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150" s="10">
         <v>26</v>
       </c>
-      <c r="AJ150" s="11" t="s">
+      <c r="AK150" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>9150</v>
       </c>
@@ -18259,14 +18712,17 @@
       <c r="AG151" s="9">
         <v>3</v>
       </c>
-      <c r="AI151" s="10">
+      <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151" s="10">
         <v>21</v>
       </c>
-      <c r="AJ151" s="11" t="s">
+      <c r="AK151" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>9398</v>
       </c>
@@ -18366,14 +18822,17 @@
       <c r="AG152" s="9">
         <v>3</v>
       </c>
-      <c r="AI152" s="10">
+      <c r="AI152">
+        <v>0</v>
+      </c>
+      <c r="AJ152" s="10">
         <v>22</v>
       </c>
-      <c r="AJ152" s="11" t="s">
+      <c r="AK152" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>9532</v>
       </c>
@@ -18473,14 +18932,17 @@
       <c r="AG153" s="9">
         <v>3</v>
       </c>
-      <c r="AI153" s="10">
+      <c r="AI153">
+        <v>0</v>
+      </c>
+      <c r="AJ153" s="10">
         <v>26</v>
       </c>
-      <c r="AJ153" s="11" t="s">
+      <c r="AK153" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>10253</v>
       </c>
@@ -18580,14 +19042,17 @@
       <c r="AG154" s="9">
         <v>3</v>
       </c>
-      <c r="AI154" s="10">
+      <c r="AI154">
+        <v>0</v>
+      </c>
+      <c r="AJ154" s="10">
         <v>18</v>
       </c>
-      <c r="AJ154" s="11" t="s">
+      <c r="AK154" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10354</v>
       </c>
@@ -18687,14 +19152,17 @@
       <c r="AG155" s="9">
         <v>3</v>
       </c>
-      <c r="AI155" s="10">
+      <c r="AI155">
+        <v>0</v>
+      </c>
+      <c r="AJ155" s="10">
         <v>29</v>
       </c>
-      <c r="AJ155" s="11" t="s">
+      <c r="AK155" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10669</v>
       </c>
@@ -18794,14 +19262,17 @@
       <c r="AG156" s="9">
         <v>3</v>
       </c>
-      <c r="AI156" s="10">
+      <c r="AI156">
+        <v>0</v>
+      </c>
+      <c r="AJ156" s="10">
         <v>15</v>
       </c>
-      <c r="AJ156" s="11" t="s">
+      <c r="AK156" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>10868</v>
       </c>
@@ -18901,14 +19372,17 @@
       <c r="AG157" s="9">
         <v>3</v>
       </c>
-      <c r="AI157" s="10">
+      <c r="AI157">
+        <v>0</v>
+      </c>
+      <c r="AJ157" s="10">
         <v>15</v>
       </c>
-      <c r="AJ157" s="11" t="s">
+      <c r="AK157" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>11080</v>
       </c>
@@ -19008,14 +19482,17 @@
       <c r="AG158" s="9">
         <v>3</v>
       </c>
-      <c r="AI158" s="10">
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158" s="10">
         <v>19</v>
       </c>
-      <c r="AJ158" s="11" t="s">
+      <c r="AK158" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>11295</v>
       </c>
@@ -19115,14 +19592,17 @@
       <c r="AG159" s="9">
         <v>3</v>
       </c>
-      <c r="AI159" s="10">
+      <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159" s="10">
         <v>28</v>
       </c>
-      <c r="AJ159" s="11" t="s">
+      <c r="AK159" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>11502</v>
       </c>
@@ -19222,14 +19702,17 @@
       <c r="AG160" s="9">
         <v>3</v>
       </c>
-      <c r="AI160" s="10">
+      <c r="AI160">
+        <v>0</v>
+      </c>
+      <c r="AJ160" s="10">
         <v>15</v>
       </c>
-      <c r="AJ160" s="11" t="s">
+      <c r="AK160" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>15663</v>
       </c>
@@ -19329,10 +19812,13 @@
       <c r="AG161" s="9">
         <v>3</v>
       </c>
-      <c r="AI161" s="10">
+      <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161" s="10">
         <v>25</v>
       </c>
-      <c r="AJ161" s="11" t="s">
+      <c r="AK161" s="11" t="s">
         <v>289</v>
       </c>
     </row>
